--- a/old_image/clinicalimpression.xlsx
+++ b/old_image/clinicalimpression.xlsx
@@ -372,7 +372,7 @@
     <t>ClinicalImpression.status</t>
   </si>
   <si>
-    <t>draft | completed | entered-in-error</t>
+    <t>in-progress | completed | entered-in-error</t>
   </si>
   <si>
     <t>Identifies the workflow status of the assessment.</t>
